--- a/biology/Botanique/Dipsacus/Dipsacus.xlsx
+++ b/biology/Botanique/Dipsacus/Dipsacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipsacus est un genre de plantes herbacées de la famille des Dipsacaceae, famille dont font aussi partie les scabieuses du genre Scabiosa. La classification APG II propose d'inclure optionnellement la famille des Dipsacaceae dans celle des Caprifoliaceae, mais c'est encore discuté.
 C'est le genre des cardères. L'espèce la plus connue est la Cardère sauvage (Dipsacus fullonum ou Dipsacus sylvestris) aussi appelée « cabaret des oiseaux », ceci en raison de l'eau qui après la pluie reste le long de la tige, à la jointure des feuilles. Le nom scientifique est dérivé du grec dipsaô (avoir soif), évoquant sans doute les feuilles caulinaires des cardères, opposées et soudées, formant des sortes de godets qui retiennent l'eau de pluie.
-Une espèce de cardère a été cultivée jusqu'à la fin du xxe siècle[2]. Les têtes de la Cardère à foulon (la Cardère cultivée, Dipsacus sativus), une fois séchées, étaient utilisées pour carder la laine, d'où son nom. C'est cette particularité qui est à l'origine du nom « cardère » attribué au genre.
+Une espèce de cardère a été cultivée jusqu'à la fin du xxe siècle. Les têtes de la Cardère à foulon (la Cardère cultivée, Dipsacus sativus), une fois séchées, étaient utilisées pour carder la laine, d'où son nom. C'est cette particularité qui est à l'origine du nom « cardère » attribué au genre.
 </t>
         </is>
       </c>
@@ -513,12 +525,13 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce sont des plantes bisannuelles d'assez grande taille, à tige pourvue d'aiguillons plus ou moins piquants. Les feuilles basales sont en rosette et se flétrissent assez tôt la seconde année. Les feuilles caulinaires sont opposées, soudées deux à deux. L'inflorescence est un capitule (plus exactement une cyme capituliforme) portant de nombreuses bractées : d'une part, à la base du capitule, une collerette de longues bractées souvent incurvées vers le haut ; de l'autre des écailles piquantes entourant les fleurs. Les fruits sont des akènes.
-Histoire
-Dans le calendrier républicain, Cardère était le nom donné au 17e jour du mois de fructidor (3 septembre).</t>
+</t>
         </is>
       </c>
     </row>
@@ -543,12 +556,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques du genre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, Cardère était le nom donné au 17e jour du mois de fructidor (3 septembre).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dipsacus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipsacus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (25 septembre 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 septembre 2017) :
 Dipsacus asper Wall.
 Dipsacus atratus Hook. fil. &amp; Thoms. ex C. B. Cl.
 Dipsacus atropurpureus C.Y. Cheng &amp; Z.T. Yin
@@ -568,7 +619,7 @@
 Dipsacus sylvestris Huds.
 Dipsacus valsecchii Camarda
 Dipsacus walkeri Arn.
-Selon GRIN            (25 septembre 2017)[4] :
+Selon GRIN            (25 septembre 2017) :
 Dipsacus asper Wall. ex DC.
 Dipsacus chinensis Batalin
 Dipsacus fullonum L.
@@ -576,11 +627,11 @@
 Dipsacus japonicus Miq.
 Dipsacus laciniatus L.
 Dipsacus sativus (L.) Honck.
-Selon ITIS      (25 septembre 2017)[5] :
+Selon ITIS      (25 septembre 2017) :
 Dipsacus fullonum L.
 Dipsacus laciniatus L.
 Dipsacus sativus (L.) Honck.
-Selon NCBI  (25 septembre 2017)[6] :
+Selon NCBI  (25 septembre 2017) :
 Dipsacus asper
 Dipsacus asperoides
 Dipsacus atropurpureus
@@ -593,7 +644,7 @@
 Dipsacus pilosus
 Dipsacus sativus
 Dipsacus strigosus
-Selon The Plant List            (25 septembre 2017)[7] :
+Selon The Plant List            (25 septembre 2017) :
 Dipsacus acaulis (A.Rich.) Napper
 Dipsacus asper Wall. ex C.B. Clarke
 Dipsacus atratus Hook.f. &amp; Thomson ex C.B.Clarke
@@ -622,7 +673,7 @@
 Dipsacus walkeri Arn.
 Dipsacus xinjiangensis Y.K.Yang, J.K.Wu &amp; T.Abdulla
 Dipsacus yulongensis Ai &amp; L.J.Yang
-Selon Tropicos                                           (25 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (25 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Dipsacus acaulis Napper
 Dipsacus appendiculatus A. Rich.
 Dipsacus arcimusci Lojac.
